--- a/__pycache__/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/__pycache__/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -760,7 +760,7 @@
     <row r="1" ht="48.75" customFormat="1" customHeight="1" s="7">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Migration Wave 01/01/2026</t>
+          <t xml:space="preserve">Hotcarding Spreadsheet - Migration Wave </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/__pycache__/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/__pycache__/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB278"/>
+  <dimension ref="A1:BD279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1043,12 +1043,152 @@
       </c>
       <c r="AA2" s="8" t="inlineStr">
         <is>
-          <t>Migration Team?</t>
+          <t>Hotcarding Spreadsheet - Migration Wave</t>
         </is>
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>Migration Team?</t>
+          <t>Issuer Address</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Zipcode</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Fi Contact</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Migration Live Date</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Visa Bid</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Mc Ica</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>New Mc Ica (New Berlin)</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Bin #</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Bin Type (Consumer Business Atm)</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Pan Length (16171819)</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Real R&amp;T #</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Pseudo R&amp;T</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Aims Id</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Issuing Network Participation (Plus Cirrus Pulse) Remember Jeanie  Nyce  Nyce Jp53  Nyce Sum (Column Aa  Y) Jadv  Nyce Sum (Column Aa  Y)</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Acquiring Network Participation (Nyce Interlink Star) Remember Jeanie  Nyce  Nyce Jp53  Nyce Sum (Column Aa  Y) Jadv  Nyce Sum (Column Aa  Y)</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Vau Segment Id</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Existing Plus Rid To Be Deleted</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Mc Affiliate Id</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Ach Account # For Billing And Fees (Dda Only)</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Ach R&amp;T For Billing And Fees</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Dda Versus Gl</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Regional Networks Interchange Account #</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Regional Networks Interchange R&amp;T</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Dda Versus Gl1</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>New Platform</t>
         </is>
       </c>
     </row>
@@ -2523,6 +2663,150 @@
       <c r="P278" s="12" t="n"/>
       <c r="V278" s="12" t="n"/>
     </row>
+    <row r="279">
+      <c r="AA279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AB279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AC279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AD279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AF279" t="inlineStr"/>
+      <c r="AG279" t="inlineStr"/>
+      <c r="AH279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AI279" t="inlineStr">
+        <is>
+          <t>Licensing Team</t>
+        </is>
+      </c>
+      <c r="AJ279" t="inlineStr">
+        <is>
+          <t>Licensing Team</t>
+        </is>
+      </c>
+      <c r="AK279" t="inlineStr">
+        <is>
+          <t>Licensing Team</t>
+        </is>
+      </c>
+      <c r="AL279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AM279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AN279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AO279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AP279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AQ279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AR279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AS279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AT279" t="inlineStr">
+        <is>
+          <t>Licensing Team</t>
+        </is>
+      </c>
+      <c r="AU279" t="inlineStr">
+        <is>
+          <t>Licensing Team</t>
+        </is>
+      </c>
+      <c r="AV279" t="inlineStr">
+        <is>
+          <t>Licensing Team</t>
+        </is>
+      </c>
+      <c r="AW279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AX279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AY279" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AZ279" t="inlineStr">
+        <is>
+          <t>Migration Team?</t>
+        </is>
+      </c>
+      <c r="BA279" t="inlineStr">
+        <is>
+          <t>Migration Team?</t>
+        </is>
+      </c>
+      <c r="BB279" t="inlineStr">
+        <is>
+          <t>Migration Team?</t>
+        </is>
+      </c>
+      <c r="BC279" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="BD279" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB17"/>
   <conditionalFormatting sqref="P17">
